--- a/gdemandfcast/data/Test Data.xlsx
+++ b/gdemandfcast/data/Test Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TCP\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF4B27A-C98B-431F-8942-C405E1C6DCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130AE8EC-E766-4A59-85A3-5B381D27A584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9C672CA0-DA99-41B1-8C50-C74C1F5CEA14}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11325" xr2:uid="{9C672CA0-DA99-41B1-8C50-C74C1F5CEA14}"/>
   </bookViews>
   <sheets>
     <sheet name="TEST DATA" sheetId="6" r:id="rId1"/>
@@ -441,21 +441,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D121AA6-35B8-448C-AA8E-8E3158FE605C}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9:O10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -469,311 +469,157 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3325</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3955</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3959</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1183</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2246</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>808</v>
+        <v>1339</v>
       </c>
       <c r="B4" s="2">
-        <v>883</v>
+        <v>2255</v>
       </c>
       <c r="C4" s="2">
-        <v>1665</v>
+        <v>2800</v>
       </c>
       <c r="D4" s="2">
-        <v>1764</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1720</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1940</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>817</v>
+        <v>3601</v>
       </c>
       <c r="B6" s="2">
-        <v>1575</v>
+        <v>7190</v>
       </c>
       <c r="C6" s="2">
-        <v>2479</v>
+        <v>7105</v>
       </c>
       <c r="D6" s="2">
-        <v>4910</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5567</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>1682</v>
+        <v>2523</v>
       </c>
       <c r="B7" s="2">
-        <v>3364</v>
+        <v>3100</v>
       </c>
       <c r="C7" s="2">
-        <v>5023</v>
+        <v>5047</v>
       </c>
       <c r="D7" s="2">
-        <v>3302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>792</v>
+        <v>854</v>
       </c>
       <c r="B9" s="2">
-        <v>1686</v>
+        <v>856</v>
       </c>
       <c r="C9" s="2">
-        <v>2571</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>821</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1622</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3295</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2470</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1700</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>1795</v>
-      </c>
-      <c r="B12" s="2">
-        <v>3396</v>
-      </c>
-      <c r="C12" s="2">
-        <v>4280</v>
-      </c>
-      <c r="D12" s="2">
-        <v>4260</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>1681</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2523</v>
-      </c>
-      <c r="C15" s="2">
-        <v>3364</v>
-      </c>
-      <c r="D15" s="2">
-        <v>4205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>2455</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4136</v>
-      </c>
-      <c r="C16" s="2">
-        <v>3226</v>
-      </c>
-      <c r="D16" s="2">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>2003</v>
-      </c>
-      <c r="B17" s="2">
-        <v>3325</v>
-      </c>
-      <c r="C17" s="2">
-        <v>3955</v>
-      </c>
-      <c r="D17" s="2">
-        <v>3959</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>1183</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1950</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2246</v>
-      </c>
-      <c r="D18" s="2">
-        <v>3048</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>1339</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2255</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2800</v>
-      </c>
-      <c r="D19" s="2">
-        <v>3679</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>1000</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1720</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1940</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>3601</v>
-      </c>
-      <c r="B21" s="2">
-        <v>7190</v>
-      </c>
-      <c r="C21" s="2">
-        <v>7105</v>
-      </c>
-      <c r="D21" s="2">
-        <v>5567</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>2523</v>
-      </c>
-      <c r="B22" s="2">
-        <v>3100</v>
-      </c>
-      <c r="C22" s="2">
-        <v>5047</v>
-      </c>
-      <c r="D22" s="2">
-        <v>4204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>854</v>
-      </c>
-      <c r="B24" s="2">
-        <v>856</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1700</v>
-      </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2">
+      <c r="B11" s="2">
         <v>814</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C11" s="2">
         <v>842</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D11" s="2">
         <v>1610</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>841</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B13" s="2">
         <v>2215</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C13" s="2">
         <v>4500</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D13" s="2">
         <v>907</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>400</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B14" s="2">
         <v>540</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C14" s="2">
         <v>470</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D14" s="2">
         <v>300</v>
       </c>
     </row>
